--- a/public/sample_uploads/investor_kycs_with_tags.xlsx
+++ b/public/sample_uploads/investor_kycs_with_tags.xlsx
@@ -511,7 +511,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
-    <t xml:space="preserve">Investor</t>
+    <t xml:space="preserve">Stakeholder</t>
   </si>
   <si>
     <t xml:space="preserve">Investing Entity</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">PAN</t>
+    <t xml:space="preserve">PAN/Tax Id</t>
   </si>
   <si>
     <t xml:space="preserve">Address</t>
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
